--- a/medicine/Psychotrope/Calitor_gris/Calitor_gris.xlsx
+++ b/medicine/Psychotrope/Calitor_gris/Calitor_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  calitor gris est un cépage de France de raisins gris.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calitor gris est la variante grise du calitor.
 Il occupe moins de 30 hectares.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, rosées
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont assez grosses et les baies sont de taille moyenne à grosse. La grappe est cylindro-conique, ailée et avec un pédoncle coudé. Le cépage est vigoureux et il produit beaucoup. Il est sensible au mildiou et à la pourriture grise.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  calitor gris est connu sous les noms fouirau, saoule-bouvier,
 </t>
